--- a/doc/milestone2le/measurements_increase_load/total.xlsx
+++ b/doc/milestone2le/measurements_increase_load/total.xlsx
@@ -218,7 +218,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -264,7 +264,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000000000"/>
+      <numFmt numFmtId="164" formatCode="0.0000000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -3114,11 +3114,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82262656"/>
-        <c:axId val="83194240"/>
+        <c:axId val="131629824"/>
+        <c:axId val="131631744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82262656"/>
+        <c:axId val="131629824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3147,7 +3147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83194240"/>
+        <c:crossAx val="131631744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3157,7 +3157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83194240"/>
+        <c:axId val="131631744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3188,7 +3188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82262656"/>
+        <c:crossAx val="131629824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5181,11 +5181,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83238912"/>
-        <c:axId val="83240448"/>
+        <c:axId val="132669440"/>
+        <c:axId val="132671360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83238912"/>
+        <c:axId val="132669440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5219,7 +5219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83240448"/>
+        <c:crossAx val="132671360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5229,7 +5229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83240448"/>
+        <c:axId val="132671360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5260,7 +5260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83238912"/>
+        <c:crossAx val="132669440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5665,7 +5665,7 @@
   <dimension ref="A1:O511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/milestone2le/measurements_increase_load/total.xlsx
+++ b/doc/milestone2le/measurements_increase_load/total.xlsx
@@ -7,9 +7,11 @@
     <workbookView xWindow="600" yWindow="150" windowWidth="12915" windowHeight="14130"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="tp" sheetId="4" r:id="rId1"/>
+    <sheet name="rt" sheetId="5" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId3"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId4"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -3114,11 +3116,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131629824"/>
-        <c:axId val="131631744"/>
+        <c:axId val="44037632"/>
+        <c:axId val="44039552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131629824"/>
+        <c:axId val="44037632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3147,7 +3149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131631744"/>
+        <c:crossAx val="44039552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3157,7 +3159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131631744"/>
+        <c:axId val="44039552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3188,7 +3190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131629824"/>
+        <c:crossAx val="44037632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3202,11 +3204,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5181,11 +5178,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132669440"/>
-        <c:axId val="132671360"/>
+        <c:axId val="135138304"/>
+        <c:axId val="135148672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132669440"/>
+        <c:axId val="135138304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5219,7 +5216,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132671360"/>
+        <c:crossAx val="135148672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5229,7 +5226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132671360"/>
+        <c:axId val="135148672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5260,7 +5257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132669440"/>
+        <c:crossAx val="135138304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5274,33 +5271,43 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="149" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="149" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9307651" cy="6021846"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5313,25 +5320,20 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9307651" cy="6009060"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5340,12 +5342,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5664,8 +5666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O511"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11215,9 +11217,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/doc/milestone2le/measurements_increase_load/total.xlsx
+++ b/doc/milestone2le/measurements_increase_load/total.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="12915" windowHeight="14130"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="12915" windowHeight="14130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tp" sheetId="4" r:id="rId1"/>
@@ -3116,11 +3116,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44037632"/>
-        <c:axId val="44039552"/>
+        <c:axId val="65693184"/>
+        <c:axId val="65695104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44037632"/>
+        <c:axId val="65693184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,7 +3149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44039552"/>
+        <c:crossAx val="65695104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3159,7 +3159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44039552"/>
+        <c:axId val="65695104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3190,7 +3190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44037632"/>
+        <c:crossAx val="65693184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3243,7 +3243,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4264,904 +4263,904 @@
                   <c:v>15.6159999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.5259999999999</c:v>
+                  <c:v>15.6159999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.5260719236728</c:v>
+                  <c:v>15.616068863210399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.5261440932571</c:v>
+                  <c:v>15.616137951866399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.5262165100118</c:v>
+                  <c:v>15.616207267072999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.526289175204701</c:v>
+                  <c:v>15.616276809942701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.526362090111901</c:v>
+                  <c:v>15.616346581595399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.526435256018299</c:v>
+                  <c:v>15.6164165831582</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.5265086742177</c:v>
+                  <c:v>15.6164868157655</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.526582605432999</c:v>
+                  <c:v>15.616558870986699</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.526658320709901</c:v>
+                  <c:v>15.6166401523631</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.5267394476069</c:v>
+                  <c:v>15.616750767669499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.526833881232299</c:v>
+                  <c:v>15.6169323606899</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.5269561304584</c:v>
+                  <c:v>15.617257787372299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.5271299166064</c:v>
+                  <c:v>15.617840536918401</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.5273908310121</c:v>
+                  <c:v>15.618843031015601</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.527788878729099</c:v>
+                  <c:v>15.620483278184301</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.528390776316</c:v>
+                  <c:v>15.623039716192</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.529281921507</c:v>
+                  <c:v>15.626854379562999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.5305680031446</c:v>
+                  <c:v>15.632334749254699</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.5323762652058</c:v>
+                  <c:v>15.6399547699891</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.5348564756562</c:v>
+                  <c:v>15.650255565928299</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.5381816777438</c:v>
+                  <c:v>15.6638463640233</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.5425488182401</c:v>
+                  <c:v>15.681406065156001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.5481793550574</c:v>
+                  <c:v>15.703685802644801</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14.5553199471659</c:v>
+                  <c:v>15.731512707626599</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14.5642433245094</c:v>
+                  <c:v>15.765794967394299</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14.575249426261101</c:v>
+                  <c:v>15.8075281163649</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14.5886668835312</c:v>
+                  <c:v>15.857802335452</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.6048549083662</c:v>
+                  <c:v>15.9178103459782</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.624205634872</c:v>
+                  <c:v>15.9888552587304</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.6471469402987</c:v>
+                  <c:v>16.072357467885102</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14.6741457531697</c:v>
+                  <c:v>16.1698593581091</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14.705711830656099</c:v>
+                  <c:v>16.283026225664699</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>14.742401956536799</c:v>
+                  <c:v>16.413641422048901</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14.7848244718832</c:v>
+                  <c:v>16.5635933587258</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14.8336440003379</c:v>
+                  <c:v>16.734851746363098</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14.8895861656035</c:v>
+                  <c:v>16.929430406837099</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14.9534420177045</c:v>
+                  <c:v>17.1493343574273</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15.026071784719999</c:v>
+                  <c:v>17.396489814100502</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>15.108407447454899</c:v>
+                  <c:v>17.6726574638102</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>15.201453498483</c:v>
+                  <c:v>17.979331886877699</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15.306285101105299</c:v>
+                  <c:v>18.3176332440847</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15.424042722273899</c:v>
+                  <c:v>18.688200855797898</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>15.5559221993741</c:v>
+                  <c:v>19.091101328748898</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>15.703159148827099</c:v>
+                  <c:v>19.525765416465202</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>15.8670066804402</c:v>
+                  <c:v>19.990966810869899</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>16.048705601684301</c:v>
+                  <c:v>20.484851980089601</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>16.249446736339099</c:v>
+                  <c:v>21.005023173647601</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>16.470325690795399</c:v>
+                  <c:v>21.5486681515535</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>16.712291382899199</c:v>
+                  <c:v>22.112721988476</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>16.976090870914899</c:v>
+                  <c:v>22.6940408495688</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>17.262214318242801</c:v>
+                  <c:v>23.289566291522402</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>17.570845144687599</c:v>
+                  <c:v>23.896461854006301</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>17.901821118139601</c:v>
+                  <c:v>24.512209990482699</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.2546122360562</c:v>
+                  <c:v>25.1346661336698</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>18.628320095837701</c:v>
+                  <c:v>25.762070824391198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>19.021701667628399</c:v>
+                  <c:v>26.393034292994201</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>19.4332169699315</c:v>
+                  <c:v>27.026495874515199</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>19.8610979097677</c:v>
+                  <c:v>27.661684649303499</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>20.303430273049699</c:v>
+                  <c:v>28.298040320612898</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>20.758244167778098</c:v>
+                  <c:v>28.9351657338396</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>21.223595499863201</c:v>
+                  <c:v>29.5727465768169</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>21.697649055281499</c:v>
+                  <c:v>30.2105784240727</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>22.178742537593699</c:v>
+                  <c:v>30.848482520765302</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>22.665460689553701</c:v>
+                  <c:v>31.4865446704714</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>23.156566826142001</c:v>
+                  <c:v>32.124693515172702</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>23.651001962580199</c:v>
+                  <c:v>32.762889109987299</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>24.147693047192998</c:v>
+                  <c:v>33.401109525631803</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>24.645939760169199</c:v>
+                  <c:v>34.039342948864103</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>25.1448643183702</c:v>
+                  <c:v>34.6775831291692</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>25.6449328568624</c:v>
+                  <c:v>35.315826813957102</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>26.14574000507</c:v>
+                  <c:v>35.954072335473498</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>26.647015374426498</c:v>
+                  <c:v>36.592318848574301</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>27.148582271397601</c:v>
+                  <c:v>37.230565927835798</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>27.650327527497598</c:v>
+                  <c:v>37.868813358686701</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>28.152180055420999</c:v>
+                  <c:v>38.507061031107298</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>28.6540960320844</c:v>
+                  <c:v>39.145308886456398</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>29.1560489285968</c:v>
+                  <c:v>39.783556891293799</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>29.658022965998899</c:v>
+                  <c:v>40.421805024662703</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>30.160008918665401</c:v>
+                  <c:v>41.060053271976997</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>30.662001481864198</c:v>
+                  <c:v>41.698301622089197</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>31.163997654712201</c:v>
+                  <c:v>42.3365500658781</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>31.665995766539101</c:v>
+                  <c:v>42.974798595546602</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>32.167994901780602</c:v>
+                  <c:v>43.613047204259701</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>32.669994566484</c:v>
+                  <c:v>44.251295885936003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>33.171994498331102</c:v>
+                  <c:v>44.889544635119599</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>33.673994560264902</c:v>
+                  <c:v>45.527793446888602</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>34.175994681915199</c:v>
+                  <c:v>46.1660423167868</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>34.677994827866598</c:v>
+                  <c:v>46.804291240766901</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>35.179994980738897</c:v>
+                  <c:v>47.442540215145002</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>35.681995132305502</c:v>
+                  <c:v>48.080789236560101</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>36.1839952789027</c:v>
+                  <c:v>48.719038301939101</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>36.685995419093999</c:v>
+                  <c:v>49.357287408467499</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>37.187995552500297</c:v>
+                  <c:v>49.995536553561699</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>37.689995679223202</c:v>
+                  <c:v>50.633785734847997</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>38.1919957995677</c:v>
+                  <c:v>51.2720349501393</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>38.693995913910001</c:v>
+                  <c:v>51.9102841974195</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>39.195996022638496</c:v>
+                  <c:v>52.548533474826002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>39.6979961261273</c:v>
+                  <c:v>53.186782780635397</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>40.1999962247273</c:v>
+                  <c:v>53.825032113251901</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>40.701996318762902</c:v>
+                  <c:v>54.463281471194499</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>41.203996408532298</c:v>
+                  <c:v>55.101530853088299</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>41.705996494309503</c:v>
+                  <c:v>55.739780257653898</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>42.207996576346503</c:v>
+                  <c:v>56.3780296836999</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>42.709996654874402</c:v>
+                  <c:v>57.016279130116303</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43.211996730106698</c:v>
+                  <c:v>57.654528595866402</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43.713996802239699</c:v>
+                  <c:v>58.292778079981801</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>44.215996871454799</c:v>
+                  <c:v>58.931027581556599</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>44.717996937920198</c:v>
+                  <c:v>59.5692770997426</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>45.2199970017911</c:v>
+                  <c:v>60.2075266337446</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>45.721997063211298</c:v>
+                  <c:v>60.845776182816799</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>46.223997122315197</c:v>
+                  <c:v>61.484025746258297</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>46.725997179226802</c:v>
+                  <c:v>62.122275323411102</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>47.227997234062201</c:v>
+                  <c:v>62.760524913655601</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>47.729997286929198</c:v>
+                  <c:v>63.398774516407997</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>48.231997337928703</c:v>
+                  <c:v>64.037024131119196</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>48.733997387154503</c:v>
+                  <c:v>64.675273757270105</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>49.235997434694802</c:v>
+                  <c:v>65.313523394371799</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>49.737997480632302</c:v>
+                  <c:v>65.951773041961204</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>50.239997525043599</c:v>
+                  <c:v>66.590022699601903</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>50.741997568001601</c:v>
+                  <c:v>67.228272366880205</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>51.243997609574002</c:v>
+                  <c:v>67.866522043404103</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>51.745997649824801</c:v>
+                  <c:v>68.504771728803107</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>52.247997688814202</c:v>
+                  <c:v>69.143021422725397</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>52.749997726598401</c:v>
+                  <c:v>69.781271124837303</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>53.251997763231202</c:v>
+                  <c:v>70.419520834822293</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>53.753997798762697</c:v>
+                  <c:v>71.057770552379395</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>54.255997833240002</c:v>
+                  <c:v>71.696020277222601</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>54.757997866708401</c:v>
+                  <c:v>72.334270009080299</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>55.2599978992099</c:v>
+                  <c:v>72.972519747693298</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>55.761997930784801</c:v>
+                  <c:v>73.610769492815294</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>56.2639979614708</c:v>
+                  <c:v>74.249019244211595</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>56.765997991303799</c:v>
+                  <c:v>74.887269001658595</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>57.267998020318103</c:v>
+                  <c:v>75.525518764942603</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>57.769998048545602</c:v>
+                  <c:v>76.163768533860093</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>58.271998076017503</c:v>
+                  <c:v>76.802018308216603</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>58.773998102762299</c:v>
+                  <c:v>77.440268087826794</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>59.275998128807899</c:v>
+                  <c:v>78.078517872512407</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>59.7779981541807</c:v>
+                  <c:v>78.716767662104601</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>60.279998178905601</c:v>
+                  <c:v>79.355017456440507</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>60.781998203006303</c:v>
+                  <c:v>79.993267255365097</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>61.283998226505702</c:v>
+                  <c:v>80.631517058729301</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>61.785998249425198</c:v>
+                  <c:v>81.269766866391194</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>62.287998271785597</c:v>
+                  <c:v>81.908016678213698</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>62.789998293606601</c:v>
+                  <c:v>82.546266494066302</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>63.291998314906898</c:v>
+                  <c:v>83.184516313823394</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>63.793998335704103</c:v>
+                  <c:v>83.822766137364397</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>64.295998356015701</c:v>
+                  <c:v>84.461015964574003</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>64.7979983758581</c:v>
+                  <c:v>85.099265795340997</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>65.299998395246703</c:v>
+                  <c:v>85.737515629558601</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>65.801998414196603</c:v>
+                  <c:v>86.375765467124694</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>66.303998432722096</c:v>
+                  <c:v>87.014015307940596</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>66.805998450837095</c:v>
+                  <c:v>87.652265151911493</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>67.307998468554601</c:v>
+                  <c:v>88.290514998946506</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>67.809998485887107</c:v>
+                  <c:v>88.928764848957499</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>68.311998502847004</c:v>
+                  <c:v>89.567014701860501</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>68.813998519445605</c:v>
+                  <c:v>90.205264557573898</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>69.315998535694206</c:v>
+                  <c:v>90.843514416019502</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>69.817998551603495</c:v>
+                  <c:v>91.481764277121798</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>70.319998567183404</c:v>
+                  <c:v>92.120014140807996</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>70.821998582444294</c:v>
+                  <c:v>92.758264007007696</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>71.323998597395402</c:v>
+                  <c:v>93.396513875653596</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>71.825998612045893</c:v>
+                  <c:v>94.034763746680397</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>72.327998626404295</c:v>
+                  <c:v>94.673013620024705</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>72.829998640479403</c:v>
+                  <c:v>95.311263495625894</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>73.331998654279104</c:v>
+                  <c:v>95.949513373425106</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>73.833998667811201</c:v>
+                  <c:v>96.587763253365793</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>74.335998681083495</c:v>
+                  <c:v>97.226013135392805</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>74.837998694102694</c:v>
+                  <c:v>97.864263019453304</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>75.339998706876401</c:v>
+                  <c:v>98.502512905496005</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>75.841998719410896</c:v>
+                  <c:v>99.140762793471296</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>76.343998731712901</c:v>
+                  <c:v>99.779012683331302</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>76.845998743788698</c:v>
+                  <c:v>100.417262575029</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>77.347998755644198</c:v>
+                  <c:v>101.05551246852001</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>77.8499987672852</c:v>
+                  <c:v>101.693762363762</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>78.351998778717601</c:v>
+                  <c:v>102.332012260711</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>78.853998789946701</c:v>
+                  <c:v>102.97026215932701</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>79.355998800977602</c:v>
+                  <c:v>103.608512059571</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>79.857998811815605</c:v>
+                  <c:v>104.246761961404</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>80.359998822465499</c:v>
+                  <c:v>104.88501186478901</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>80.861998832932102</c:v>
+                  <c:v>105.52326176969</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>81.363998843220003</c:v>
+                  <c:v>106.161511676072</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>81.865998853333593</c:v>
+                  <c:v>106.799761583902</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>82.367998863277194</c:v>
+                  <c:v>107.43801149314601</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>82.869998873054996</c:v>
+                  <c:v>108.076261403774</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>83.371998882671093</c:v>
+                  <c:v>108.714511315753</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>83.873998892129094</c:v>
+                  <c:v>109.352761229054</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>84.375998901433107</c:v>
+                  <c:v>109.991011143648</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>84.877998910586598</c:v>
+                  <c:v>110.62926105950601</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>85.379998919593405</c:v>
+                  <c:v>111.267510976601</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>85.881998928456397</c:v>
+                  <c:v>111.905760894907</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>86.383998937179598</c:v>
+                  <c:v>112.544010814397</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>86.885998945765493</c:v>
+                  <c:v>113.182260735046</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>87.387998954218006</c:v>
+                  <c:v>113.82051065683</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>87.889998962539593</c:v>
+                  <c:v>114.458760579724</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>88.391998970733397</c:v>
+                  <c:v>115.097010503706</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>88.893998978802401</c:v>
+                  <c:v>115.73526042875299</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>89.395998986749206</c:v>
+                  <c:v>116.373510354844</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>89.897998994576696</c:v>
+                  <c:v>117.011760281956</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>90.399999002287203</c:v>
+                  <c:v>117.650010210069</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>90.901999009883397</c:v>
+                  <c:v>118.288260139163</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>91.403999017367894</c:v>
+                  <c:v>118.926510069218</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>91.905999024743295</c:v>
+                  <c:v>119.564760000216</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>92.407999032011105</c:v>
+                  <c:v>120.203009932136</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>92.909999039174494</c:v>
+                  <c:v>120.841259864962</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>93.411999046235195</c:v>
+                  <c:v>121.479509798675</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>93.913999053195596</c:v>
+                  <c:v>122.117759733258</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>94.415999060057601</c:v>
+                  <c:v>122.756009668695</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>94.9179990668231</c:v>
+                  <c:v>123.39425960496899</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>95.419999073494594</c:v>
+                  <c:v>124.032509542063</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>95.921999080073604</c:v>
+                  <c:v>124.670759479964</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>96.423999086562006</c:v>
+                  <c:v>125.309009418654</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>96.925999092961703</c:v>
+                  <c:v>125.94725935811999</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>97.427999099274601</c:v>
+                  <c:v>126.58550929834701</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>97.929999105502205</c:v>
+                  <c:v>127.223759239321</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>98.431999111646306</c:v>
+                  <c:v>127.862009181028</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>98.933999117708495</c:v>
+                  <c:v>128.50025912345501</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>99.435999123690394</c:v>
+                  <c:v>129.13850906658899</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>99.937999129593706</c:v>
+                  <c:v>129.77675901041599</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>100.439999135419</c:v>
+                  <c:v>130.41500895492501</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>100.94199914117</c:v>
+                  <c:v>131.053258900103</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>101.443999146846</c:v>
+                  <c:v>131.69150884593901</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>101.94599915244901</c:v>
+                  <c:v>132.32975879241999</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>102.44799915797999</c:v>
+                  <c:v>132.96800873953501</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>102.949999163442</c:v>
+                  <c:v>133.60625868727399</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>103.451999168835</c:v>
+                  <c:v>134.24450863562501</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>103.95399917416</c:v>
+                  <c:v>134.88275858457899</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>104.455999179418</c:v>
+                  <c:v>135.52100853412301</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>104.95799918461201</c:v>
+                  <c:v>136.15925848424899</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>105.45999918974201</c:v>
+                  <c:v>136.79750843494699</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>105.961999194809</c:v>
+                  <c:v>137.435758386206</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>106.463999199814</c:v>
+                  <c:v>138.07400833801799</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>106.96599920475801</c:v>
+                  <c:v>138.712258290373</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>107.467999209643</c:v>
+                  <c:v>139.350508243262</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>107.96999921446999</c:v>
+                  <c:v>139.988758196677</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>108.47199921924</c:v>
+                  <c:v>140.62700815060799</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>108.973999223953</c:v>
+                  <c:v>141.265258105047</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>109.47599922860999</c:v>
+                  <c:v>141.903508059986</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>109.977999233213</c:v>
+                  <c:v>142.541758015417</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>110.479999237763</c:v>
+                  <c:v>143.180007971332</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>110.98199924226</c:v>
+                  <c:v>143.81825792772301</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>111.483999246705</c:v>
+                  <c:v>144.45650788458201</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>111.985999251099</c:v>
+                  <c:v>145.094757841903</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>112.487999255443</c:v>
+                  <c:v>145.73300779967801</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>112.98999925973899</c:v>
+                  <c:v>146.371257757899</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>113.49199926398499</c:v>
+                  <c:v>147.009507716559</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>113.99399926818499</c:v>
+                  <c:v>147.647757675653</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>114.495999272337</c:v>
+                  <c:v>148.28600763517301</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>114.99799927644401</c:v>
+                  <c:v>148.924257595113</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>115.49999928050499</c:v>
+                  <c:v>149.562507555465</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>116.001999284522</c:v>
+                  <c:v>150.200757516225</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>116.503999288495</c:v>
+                  <c:v>150.839007477385</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>117.005999292425</c:v>
+                  <c:v>151.47725743894</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>117.50799929631199</c:v>
+                  <c:v>152.11550740088299</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>118.009999300158</c:v>
+                  <c:v>152.75375736321001</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>118.51199930396299</c:v>
+                  <c:v>153.39200732591399</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>119.013999307727</c:v>
+                  <c:v>154.03025728898899</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>119.51599931145201</c:v>
+                  <c:v>154.66850725243</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>120.017999315137</c:v>
+                  <c:v>155.306757216233</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>120.519999318784</c:v>
+                  <c:v>155.945007180391</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>121.021999322393</c:v>
+                  <c:v>156.58325714489899</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>121.523999325964</c:v>
+                  <c:v>157.221507109752</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>122.025999329499</c:v>
+                  <c:v>157.859757074946</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>122.527999332997</c:v>
+                  <c:v>158.49800704047499</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>123.02999933645999</c:v>
+                  <c:v>159.136257006335</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>123.53199933988699</c:v>
+                  <c:v>159.77450697252101</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>124.03399934328</c:v>
+                  <c:v>160.41275693902799</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>124.535999346639</c:v>
+                  <c:v>161.05100690585201</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>125.037999349964</c:v>
+                  <c:v>161.68925687298801</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>125.53999935325599</c:v>
+                  <c:v>162.32750684043299</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>126.04199935651501</c:v>
+                  <c:v>162.965756808181</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>126.543999359742</c:v>
+                  <c:v>163.604006776229</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>127.04599936293801</c:v>
+                  <c:v>164.24225674457199</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>127.547999366102</c:v>
+                  <c:v>164.88050671320701</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>128.049999369235</c:v>
+                  <c:v>165.51875668212901</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>128.551999372339</c:v>
+                  <c:v>166.157006651334</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>129.05399937541199</c:v>
+                  <c:v>166.79525662082</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>129.555999378455</c:v>
+                  <c:v>167.433506590581</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>130.05799938147001</c:v>
+                  <c:v>168.07175656061401</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>130.55999938445601</c:v>
+                  <c:v>168.71000653091701</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>131.06199938741401</c:v>
+                  <c:v>169.348256501484</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>131.56399939034301</c:v>
+                  <c:v>169.98650647231199</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>132.06599939324599</c:v>
+                  <c:v>170.62475644339901</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>132.567999396121</c:v>
+                  <c:v>171.263006414741</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>133.06999939897</c:v>
+                  <c:v>171.90125638633401</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>133.571999401792</c:v>
+                  <c:v>172.539506358175</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>134.07399940458799</c:v>
+                  <c:v>173.17775633026099</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>134.57599940735901</c:v>
+                  <c:v>173.81600630258799</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>135.07799941010401</c:v>
+                  <c:v>174.45425627515399</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>135.57999941282401</c:v>
+                  <c:v>175.09250624795601</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>136.08199941551999</c:v>
+                  <c:v>175.730756220991</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>136.58399941819101</c:v>
+                  <c:v>176.36900619425501</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>137.08599942083899</c:v>
+                  <c:v>177.00725616774599</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>137.58799942346201</c:v>
+                  <c:v>177.645506141461</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>138.089999426063</c:v>
+                  <c:v>178.28375611539701</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>138.59199942864001</c:v>
+                  <c:v>178.92200608955099</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>139.09399943119499</c:v>
+                  <c:v>179.560256063921</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>139.595999433727</c:v>
+                  <c:v>180.19850603850301</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>140.09799943623801</c:v>
+                  <c:v>180.83675601329699</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>140.599999438726</c:v>
+                  <c:v>181.475005988297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5178,11 +5177,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="135138304"/>
-        <c:axId val="135148672"/>
+        <c:axId val="65751680"/>
+        <c:axId val="65811200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135138304"/>
+        <c:axId val="65751680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5209,14 +5208,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135148672"/>
+        <c:crossAx val="65811200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5226,7 +5224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135148672"/>
+        <c:axId val="65811200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5250,21 +5248,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135138304"/>
+        <c:crossAx val="65751680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5278,7 +5274,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="149" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5666,8 +5662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O511"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5757,7 +5753,7 @@
         <v>39.038101186758297</v>
       </c>
       <c r="O3">
-        <v>14.5259999999999</v>
+        <v>15.6159999999999</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5774,7 +5770,7 @@
         <v>78.075992482686601</v>
       </c>
       <c r="O4">
-        <v>14.5260719236728</v>
+        <v>15.616068863210399</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -5791,7 +5787,7 @@
         <v>117.11367285876899</v>
       </c>
       <c r="O5">
-        <v>14.5261440932571</v>
+        <v>15.616137951866399</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -5808,7 +5804,7 @@
         <v>156.15114127927799</v>
       </c>
       <c r="O6">
-        <v>14.5262165100118</v>
+        <v>15.616207267072999</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -5825,7 +5821,7 @@
         <v>195.188396701713</v>
       </c>
       <c r="O7">
-        <v>14.526289175204701</v>
+        <v>15.616276809942701</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -5842,7 +5838,7 @@
         <v>234.225438076747</v>
       </c>
       <c r="O8">
-        <v>14.526362090111901</v>
+        <v>15.616346581595399</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -5859,7 +5855,7 @@
         <v>273.26226434817698</v>
       </c>
       <c r="O9">
-        <v>14.526435256018299</v>
+        <v>15.6164165831582</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -5876,7 +5872,7 @@
         <v>312.29887445285499</v>
       </c>
       <c r="O10">
-        <v>14.5265086742177</v>
+        <v>15.6164868157655</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -5893,7 +5889,7 @@
         <v>351.33524550767697</v>
       </c>
       <c r="O11">
-        <v>14.526582605432999</v>
+        <v>15.616558870986699</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -5910,7 +5906,7 @@
         <v>390.37125635999797</v>
       </c>
       <c r="O12">
-        <v>14.526658320709901</v>
+        <v>15.6166401523631</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -5927,7 +5923,7 @@
         <v>429.40652777411998</v>
       </c>
       <c r="O13">
-        <v>14.5267394476069</v>
+        <v>15.616750767669499</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -5944,7 +5940,7 @@
         <v>468.440164147617</v>
       </c>
       <c r="O14">
-        <v>14.526833881232299</v>
+        <v>15.6169323606899</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -5961,7 +5957,7 @@
         <v>507.47039780378702</v>
       </c>
       <c r="O15">
-        <v>14.5269561304584</v>
+        <v>15.617257787372299</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -5978,7 +5974,7 @@
         <v>546.49415042709302</v>
       </c>
       <c r="O16">
-        <v>14.5271299166064</v>
+        <v>15.617840536918401</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -6026,7 +6022,7 @@
         <v>585.50653446137699</v>
       </c>
       <c r="O17">
-        <v>14.5273908310121</v>
+        <v>15.618843031015601</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -6043,7 +6039,7 @@
         <v>624.50031977436902</v>
       </c>
       <c r="O18">
-        <v>14.527788878729099</v>
+        <v>15.620483278184301</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -6060,7 +6056,7 @@
         <v>663.465388505688</v>
       </c>
       <c r="O19">
-        <v>14.528390776316</v>
+        <v>15.623039716192</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -6077,7 +6073,7 @@
         <v>702.388195343814</v>
       </c>
       <c r="O20">
-        <v>14.529281921507</v>
+        <v>15.626854379562999</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -6094,7 +6090,7 @@
         <v>741.25124323887201</v>
       </c>
       <c r="O21">
-        <v>14.5305680031446</v>
+        <v>15.632334749254699</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -6111,7 +6107,7 @@
         <v>780.03257725748597</v>
       </c>
       <c r="O22">
-        <v>14.5323762652058</v>
+        <v>15.6399547699891</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -6128,7 +6124,7 @@
         <v>818.70529305347804</v>
       </c>
       <c r="O23">
-        <v>14.5348564756562</v>
+        <v>15.650255565928299</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -6145,7 +6141,7 @@
         <v>857.23705199702601</v>
       </c>
       <c r="O24">
-        <v>14.5381816777438</v>
+        <v>15.6638463640233</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -6162,7 +6158,7 @@
         <v>895.58959278346595</v>
       </c>
       <c r="O25">
-        <v>14.5425488182401</v>
+        <v>15.681406065156001</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -6179,7 +6175,7 @@
         <v>933.71822952840705</v>
       </c>
       <c r="O26">
-        <v>14.5481793550574</v>
+        <v>15.703685802644801</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -6196,7 +6192,7 @@
         <v>971.57132905715901</v>
       </c>
       <c r="O27">
-        <v>14.5553199471659</v>
+        <v>15.731512707626599</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -6213,7 +6209,7 @@
         <v>1009.0897654391</v>
       </c>
       <c r="O28">
-        <v>14.5642433245094</v>
+        <v>15.765794967394299</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -6230,7 +6226,7 @@
         <v>1046.2063580153099</v>
       </c>
       <c r="O29">
-        <v>14.575249426261101</v>
+        <v>15.8075281163649</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -6247,7 +6243,7 @@
         <v>1082.8453105471699</v>
       </c>
       <c r="O30">
-        <v>14.5886668835312</v>
+        <v>15.857802335452</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -6264,7 +6260,7 @@
         <v>1118.92168408046</v>
       </c>
       <c r="O31">
-        <v>14.6048549083662</v>
+        <v>15.9178103459782</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -6312,7 +6308,7 @@
         <v>1154.3409550492599</v>
       </c>
       <c r="O32">
-        <v>14.624205634872</v>
+        <v>15.9888552587304</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -6329,7 +6325,7 @@
         <v>1188.9987331672801</v>
       </c>
       <c r="O33">
-        <v>14.6471469402987</v>
+        <v>16.072357467885102</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -6346,7 +6342,7 @@
         <v>1222.7807403208001</v>
       </c>
       <c r="O34">
-        <v>14.6741457531697</v>
+        <v>16.1698593581091</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -6363,7 +6359,7 @@
         <v>1255.5631804596501</v>
       </c>
       <c r="O35">
-        <v>14.705711830656099</v>
+        <v>16.283026225664699</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -6380,7 +6376,7 @@
         <v>1287.21365815234</v>
       </c>
       <c r="O36">
-        <v>14.742401956536799</v>
+        <v>16.413641422048901</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -6397,7 +6393,7 @@
         <v>1317.59282440991</v>
       </c>
       <c r="O37">
-        <v>14.7848244718832</v>
+        <v>16.5635933587258</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -6414,7 +6410,7 @@
         <v>1346.5569340550801</v>
       </c>
       <c r="O38">
-        <v>14.8336440003379</v>
+        <v>16.734851746363098</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -6431,7 +6427,7 @@
         <v>1373.9614778709099</v>
       </c>
       <c r="O39">
-        <v>14.8895861656035</v>
+        <v>16.929430406837099</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -6448,7 +6444,7 @@
         <v>1399.66599179637</v>
       </c>
       <c r="O40">
-        <v>14.9534420177045</v>
+        <v>17.1493343574273</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -6465,7 +6461,7 @@
         <v>1423.5400324872001</v>
       </c>
       <c r="O41">
-        <v>15.026071784719999</v>
+        <v>17.396489814100502</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -6482,7 +6478,7 @@
         <v>1445.47013789012</v>
       </c>
       <c r="O42">
-        <v>15.108407447454899</v>
+        <v>17.6726574638102</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -6499,7 +6495,7 @@
         <v>1465.36737066366</v>
       </c>
       <c r="O43">
-        <v>15.201453498483</v>
+        <v>17.979331886877699</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -6516,7 +6512,7 @@
         <v>1483.17479917829</v>
       </c>
       <c r="O44">
-        <v>15.306285101105299</v>
+        <v>18.3176332440847</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -6533,7 +6529,7 @@
         <v>1498.87405683405</v>
       </c>
       <c r="O45">
-        <v>15.424042722273899</v>
+        <v>18.688200855797898</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -6550,7 +6546,7 @@
         <v>1512.4900052002299</v>
       </c>
       <c r="O46">
-        <v>15.5559221993741</v>
+        <v>19.091101328748898</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -6598,7 +6594,7 @@
         <v>1524.09258033681</v>
       </c>
       <c r="O47">
-        <v>15.703159148827099</v>
+        <v>19.525765416465202</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -6615,7 +6611,7 @@
         <v>1533.79516872819</v>
       </c>
       <c r="O48">
-        <v>15.8670066804402</v>
+        <v>19.990966810869899</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -6632,7 +6628,7 @@
         <v>1541.74932621279</v>
       </c>
       <c r="O49">
-        <v>16.048705601684301</v>
+        <v>20.484851980089601</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -6649,7 +6645,7 @@
         <v>1548.13624009147</v>
       </c>
       <c r="O50">
-        <v>16.249446736339099</v>
+        <v>21.005023173647601</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -6666,7 +6662,7 @@
         <v>1553.15589756796</v>
       </c>
       <c r="O51">
-        <v>16.470325690795399</v>
+        <v>21.5486681515535</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -6683,7 +6679,7 @@
         <v>1557.0153167938499</v>
       </c>
       <c r="O52">
-        <v>16.712291382899199</v>
+        <v>22.112721988476</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -6700,7 +6696,7 @@
         <v>1559.9173021976701</v>
       </c>
       <c r="O53">
-        <v>16.976090870914899</v>
+        <v>22.6940408495688</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -6717,7 +6713,7 @@
         <v>1562.05099053039</v>
       </c>
       <c r="O54">
-        <v>17.262214318242801</v>
+        <v>23.289566291522402</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -6734,7 +6730,7 @@
         <v>1563.58502041521</v>
       </c>
       <c r="O55">
-        <v>17.570845144687599</v>
+        <v>23.896461854006301</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -6751,7 +6747,7 @@
         <v>1564.66363686623</v>
       </c>
       <c r="O56">
-        <v>17.901821118139601</v>
+        <v>24.512209990482699</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -6768,7 +6764,7 @@
         <v>1565.4055112051501</v>
       </c>
       <c r="O57">
-        <v>18.2546122360562</v>
+        <v>25.1346661336698</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -6785,7 +6781,7 @@
         <v>1565.90484580679</v>
       </c>
       <c r="O58">
-        <v>18.628320095837701</v>
+        <v>25.762070824391198</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -6802,7 +6798,7 @@
         <v>1566.2337891669699</v>
       </c>
       <c r="O59">
-        <v>19.021701667628399</v>
+        <v>26.393034292994201</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -6819,7 +6815,7 @@
         <v>1566.4458283215599</v>
       </c>
       <c r="O60">
-        <v>19.4332169699315</v>
+        <v>27.026495874515199</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -6836,7 +6832,7 @@
         <v>1566.5788864569799</v>
       </c>
       <c r="O61">
-        <v>19.8610979097677</v>
+        <v>27.661684649303499</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -6884,7 +6880,7 @@
         <v>1566.65979506284</v>
       </c>
       <c r="O62">
-        <v>20.303430273049699</v>
+        <v>28.298040320612898</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -6901,7 +6897,7 @@
         <v>1566.7070847211801</v>
       </c>
       <c r="O63">
-        <v>20.758244167778098</v>
+        <v>28.9351657338396</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -6918,7 +6914,7 @@
         <v>1566.7348203806901</v>
       </c>
       <c r="O64">
-        <v>21.223595499863201</v>
+        <v>29.5727465768169</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -6935,7 +6931,7 @@
         <v>1566.7518963687401</v>
       </c>
       <c r="O65">
-        <v>21.697649055281499</v>
+        <v>30.2105784240727</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -6952,7 +6948,7 @@
         <v>1566.76566791595</v>
       </c>
       <c r="O66">
-        <v>22.178742537593699</v>
+        <v>30.848482520765302</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -6969,7 +6965,7 @@
         <v>1566.77304693115</v>
       </c>
       <c r="O67">
-        <v>22.665460689553701</v>
+        <v>31.4865446704714</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -6986,7 +6982,7 @@
         <v>1566.77697788418</v>
       </c>
       <c r="O68">
-        <v>23.156566826142001</v>
+        <v>32.124693515172702</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -7003,7 +6999,7 @@
         <v>1566.7790786462999</v>
       </c>
       <c r="O69">
-        <v>23.651001962580199</v>
+        <v>32.762889109987299</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -7020,7 +7016,7 @@
         <v>1566.7802215941099</v>
       </c>
       <c r="O70">
-        <v>24.147693047192998</v>
+        <v>33.401109525631803</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -7037,7 +7033,7 @@
         <v>1566.7808686455301</v>
       </c>
       <c r="O71">
-        <v>24.645939760169199</v>
+        <v>34.039342948864103</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -7054,7 +7050,7 @@
         <v>1566.7812602490101</v>
       </c>
       <c r="O72">
-        <v>25.1448643183702</v>
+        <v>34.6775831291692</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -7071,7 +7067,7 @@
         <v>1566.7815196551101</v>
       </c>
       <c r="O73">
-        <v>25.6449328568624</v>
+        <v>35.315826813957102</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -7088,7 +7084,7 @@
         <v>1566.78170923321</v>
       </c>
       <c r="O74">
-        <v>26.14574000507</v>
+        <v>35.954072335473498</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -7105,7 +7101,7 @@
         <v>1566.7818602729501</v>
       </c>
       <c r="O75">
-        <v>26.647015374426498</v>
+        <v>36.592318848574301</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -7122,7 +7118,7 @@
         <v>1566.7819884492901</v>
       </c>
       <c r="O76">
-        <v>27.148582271397601</v>
+        <v>37.230565927835798</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -7139,7 +7135,7 @@
         <v>1566.78210169982</v>
       </c>
       <c r="O77">
-        <v>27.650327527497598</v>
+        <v>37.868813358686701</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -7156,7 +7152,7 @@
         <v>1566.7822041673801</v>
       </c>
       <c r="O78">
-        <v>28.152180055420999</v>
+        <v>38.507061031107298</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -7173,7 +7169,7 @@
         <v>1566.78229814157</v>
       </c>
       <c r="O79">
-        <v>28.6540960320844</v>
+        <v>39.145308886456398</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -7190,7 +7186,7 @@
         <v>1566.78238500151</v>
       </c>
       <c r="O80">
-        <v>29.1560489285968</v>
+        <v>39.783556891293799</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -7207,7 +7203,7 @@
         <v>1566.78246566855</v>
       </c>
       <c r="O81">
-        <v>29.658022965998899</v>
+        <v>40.421805024662703</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
@@ -7224,7 +7220,7 @@
         <v>1566.7825408224901</v>
       </c>
       <c r="O82">
-        <v>30.160008918665401</v>
+        <v>41.060053271976997</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
@@ -7241,7 +7237,7 @@
         <v>1566.78261100536</v>
       </c>
       <c r="O83">
-        <v>30.662001481864198</v>
+        <v>41.698301622089197</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
@@ -7258,7 +7254,7 @@
         <v>1566.7826766721</v>
       </c>
       <c r="O84">
-        <v>31.163997654712201</v>
+        <v>42.3365500658781</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -7275,7 +7271,7 @@
         <v>1566.7827382165301</v>
       </c>
       <c r="O85">
-        <v>31.665995766539101</v>
+        <v>42.974798595546602</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
@@ -7292,7 +7288,7 @@
         <v>1566.7827959856299</v>
       </c>
       <c r="O86">
-        <v>32.167994901780602</v>
+        <v>43.613047204259701</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -7309,7 +7305,7 @@
         <v>1566.7828502882801</v>
       </c>
       <c r="O87">
-        <v>32.669994566484</v>
+        <v>44.251295885936003</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -7326,7 +7322,7 @@
         <v>1566.7829014011299</v>
       </c>
       <c r="O88">
-        <v>33.171994498331102</v>
+        <v>44.889544635119599</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -7343,7 +7339,7 @@
         <v>1566.78294957306</v>
       </c>
       <c r="O89">
-        <v>33.673994560264902</v>
+        <v>45.527793446888602</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -7360,7 +7356,7 @@
         <v>1566.78299502862</v>
       </c>
       <c r="O90">
-        <v>34.175994681915199</v>
+        <v>46.1660423167868</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -7377,7 +7373,7 @@
         <v>1566.7830379710299</v>
       </c>
       <c r="O91">
-        <v>34.677994827866598</v>
+        <v>46.804291240766901</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -7425,7 +7421,7 @@
         <v>1566.7830785845099</v>
       </c>
       <c r="O92">
-        <v>35.179994980738897</v>
+        <v>47.442540215145002</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
@@ -7442,7 +7438,7 @@
         <v>1566.78311703653</v>
       </c>
       <c r="O93">
-        <v>35.681995132305502</v>
+        <v>48.080789236560101</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -7459,7 +7455,7 @@
         <v>1566.78315347957</v>
       </c>
       <c r="O94">
-        <v>36.1839952789027</v>
+        <v>48.719038301939101</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -7476,7 +7472,7 @@
         <v>1566.7831880527101</v>
       </c>
       <c r="O95">
-        <v>36.685995419093999</v>
+        <v>49.357287408467499</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
@@ -7493,7 +7489,7 @@
         <v>1566.7832208831101</v>
       </c>
       <c r="O96">
-        <v>37.187995552500297</v>
+        <v>49.995536553561699</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -7508,7 +7504,7 @@
         <v>1566.78325208714</v>
       </c>
       <c r="O97">
-        <v>37.689995679223202</v>
+        <v>50.633785734847997</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -7525,7 +7521,7 @@
         <v>1566.78328177154</v>
       </c>
       <c r="O98">
-        <v>38.1919957995677</v>
+        <v>51.2720349501393</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -7542,7 +7538,7 @@
         <v>1566.78331003434</v>
       </c>
       <c r="O99">
-        <v>38.693995913910001</v>
+        <v>51.9102841974195</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -7559,7 +7555,7 @@
         <v>1566.7833369657101</v>
       </c>
       <c r="O100">
-        <v>39.195996022638496</v>
+        <v>52.548533474826002</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -7576,7 +7572,7 @@
         <v>1566.78336264874</v>
       </c>
       <c r="O101">
-        <v>39.6979961261273</v>
+        <v>53.186782780635397</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -7593,7 +7589,7 @@
         <v>1566.7833871600501</v>
       </c>
       <c r="O102">
-        <v>40.1999962247273</v>
+        <v>53.825032113251901</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -7610,7 +7606,7 @@
         <v>1566.7834105704301</v>
       </c>
       <c r="O103">
-        <v>40.701996318762902</v>
+        <v>54.463281471194499</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -7627,7 +7623,7 @@
         <v>1566.7834329453599</v>
       </c>
       <c r="O104">
-        <v>41.203996408532298</v>
+        <v>55.101530853088299</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -7644,7 +7640,7 @@
         <v>1566.7834543454801</v>
       </c>
       <c r="O105">
-        <v>41.705996494309503</v>
+        <v>55.739780257653898</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -7661,7 +7657,7 @@
         <v>1566.78347482704</v>
       </c>
       <c r="O106">
-        <v>42.207996576346503</v>
+        <v>56.3780296836999</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -7678,7 +7674,7 @@
         <v>1566.78349444223</v>
       </c>
       <c r="O107">
-        <v>42.709996654874402</v>
+        <v>57.016279130116303</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -7695,7 +7691,7 @@
         <v>1566.7835132395901</v>
       </c>
       <c r="O108">
-        <v>43.211996730106698</v>
+        <v>57.654528595866402</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -7712,7 +7708,7 @@
         <v>1566.7835312642501</v>
       </c>
       <c r="O109">
-        <v>43.713996802239699</v>
+        <v>58.292778079981801</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -7729,7 +7725,7 @@
         <v>1566.78354855827</v>
       </c>
       <c r="O110">
-        <v>44.215996871454799</v>
+        <v>58.931027581556599</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -7746,7 +7742,7 @@
         <v>1566.78356516088</v>
       </c>
       <c r="O111">
-        <v>44.717996937920198</v>
+        <v>59.5692770997426</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -7763,7 +7759,7 @@
         <v>1566.78358110865</v>
       </c>
       <c r="O112">
-        <v>45.2199970017911</v>
+        <v>60.2075266337446</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -7780,7 +7776,7 @@
         <v>1566.7835964358001</v>
       </c>
       <c r="O113">
-        <v>45.721997063211298</v>
+        <v>60.845776182816799</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -7797,7 +7793,7 @@
         <v>1566.7836111742999</v>
       </c>
       <c r="O114">
-        <v>46.223997122315197</v>
+        <v>61.484025746258297</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -7814,7 +7810,7 @@
         <v>1566.78362535409</v>
       </c>
       <c r="O115">
-        <v>46.725997179226802</v>
+        <v>62.122275323411102</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -7831,7 +7827,7 @@
         <v>1566.78363900319</v>
       </c>
       <c r="O116">
-        <v>47.227997234062201</v>
+        <v>62.760524913655601</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -7848,7 +7844,7 @@
         <v>1566.7836521479201</v>
       </c>
       <c r="O117">
-        <v>47.729997286929198</v>
+        <v>63.398774516407997</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
@@ -7865,7 +7861,7 @@
         <v>1566.7836648129501</v>
       </c>
       <c r="O118">
-        <v>48.231997337928703</v>
+        <v>64.037024131119196</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -7882,7 +7878,7 @@
         <v>1566.7836770214601</v>
       </c>
       <c r="O119">
-        <v>48.733997387154503</v>
+        <v>64.675273757270105</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -7899,7 +7895,7 @@
         <v>1566.7836887952301</v>
       </c>
       <c r="O120">
-        <v>49.235997434694802</v>
+        <v>65.313523394371799</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
@@ -7916,7 +7912,7 @@
         <v>1566.78370015477</v>
       </c>
       <c r="O121">
-        <v>49.737997480632302</v>
+        <v>65.951773041961204</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7964,7 +7960,7 @@
         <v>1566.7837111193801</v>
       </c>
       <c r="O122">
-        <v>50.239997525043599</v>
+        <v>66.590022699601903</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
@@ -7981,7 +7977,7 @@
         <v>1566.7837217072199</v>
       </c>
       <c r="O123">
-        <v>50.741997568001601</v>
+        <v>67.228272366880205</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -7998,7 +7994,7 @@
         <v>1566.7837319354601</v>
       </c>
       <c r="O124">
-        <v>51.243997609574002</v>
+        <v>67.866522043404103</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -8015,7 +8011,7 @@
         <v>1566.78374182026</v>
       </c>
       <c r="O125">
-        <v>51.745997649824801</v>
+        <v>68.504771728803107</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
@@ -8032,7 +8028,7 @@
         <v>1566.78375137689</v>
       </c>
       <c r="O126">
-        <v>52.247997688814202</v>
+        <v>69.143021422725397</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -8049,7 +8045,7 @@
         <v>1566.78376061979</v>
       </c>
       <c r="O127">
-        <v>52.749997726598401</v>
+        <v>69.781271124837303</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
@@ -8066,7 +8062,7 @@
         <v>1566.7837695625799</v>
       </c>
       <c r="O128">
-        <v>53.251997763231202</v>
+        <v>70.419520834822293</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
@@ -8083,7 +8079,7 @@
         <v>1566.78377821818</v>
       </c>
       <c r="O129">
-        <v>53.753997798762697</v>
+        <v>71.057770552379395</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
@@ -8100,7 +8096,7 @@
         <v>1566.7837865987999</v>
       </c>
       <c r="O130">
-        <v>54.255997833240002</v>
+        <v>71.696020277222601</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
@@ -8117,7 +8113,7 @@
         <v>1566.7837947160101</v>
       </c>
       <c r="O131">
-        <v>54.757997866708401</v>
+        <v>72.334270009080299</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
@@ -8134,7 +8130,7 @@
         <v>1566.78380258078</v>
       </c>
       <c r="O132">
-        <v>55.2599978992099</v>
+        <v>72.972519747693298</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
@@ -8151,7 +8147,7 @@
         <v>1566.7838102035</v>
       </c>
       <c r="O133">
-        <v>55.761997930784801</v>
+        <v>73.610769492815294</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
@@ -8168,7 +8164,7 @@
         <v>1566.7838175940401</v>
       </c>
       <c r="O134">
-        <v>56.2639979614708</v>
+        <v>74.249019244211595</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
@@ -8185,7 +8181,7 @@
         <v>1566.7838247617699</v>
       </c>
       <c r="O135">
-        <v>56.765997991303799</v>
+        <v>74.887269001658595</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
@@ -8202,7 +8198,7 @@
         <v>1566.7838317155799</v>
       </c>
       <c r="O136">
-        <v>57.267998020318103</v>
+        <v>75.525518764942603</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
@@ -8219,7 +8215,7 @@
         <v>1566.7838384639399</v>
       </c>
       <c r="O137">
-        <v>57.769998048545602</v>
+        <v>76.163768533860093</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
@@ -8236,7 +8232,7 @@
         <v>1566.7838450148799</v>
       </c>
       <c r="O138">
-        <v>58.271998076017503</v>
+        <v>76.802018308216603</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
@@ -8253,7 +8249,7 @@
         <v>1566.7838513760501</v>
       </c>
       <c r="O139">
-        <v>58.773998102762299</v>
+        <v>77.440268087826794</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
@@ -8270,7 +8266,7 @@
         <v>1566.7838575547401</v>
       </c>
       <c r="O140">
-        <v>59.275998128807899</v>
+        <v>78.078517872512407</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
@@ -8287,7 +8283,7 @@
         <v>1566.7838635578901</v>
       </c>
       <c r="O141">
-        <v>59.7779981541807</v>
+        <v>78.716767662104601</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
@@ -8304,7 +8300,7 @@
         <v>1566.7838693920901</v>
       </c>
       <c r="O142">
-        <v>60.279998178905601</v>
+        <v>79.355017456440507</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
@@ -8321,7 +8317,7 @@
         <v>1566.7838750636499</v>
       </c>
       <c r="O143">
-        <v>60.781998203006303</v>
+        <v>79.993267255365097</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
@@ -8338,7 +8334,7 @@
         <v>1566.78388057858</v>
       </c>
       <c r="O144">
-        <v>61.283998226505702</v>
+        <v>80.631517058729301</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
@@ -8355,7 +8351,7 @@
         <v>1566.7838859425999</v>
       </c>
       <c r="O145">
-        <v>61.785998249425198</v>
+        <v>81.269766866391194</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
@@ -8372,7 +8368,7 @@
         <v>1566.78389116119</v>
       </c>
       <c r="O146">
-        <v>62.287998271785597</v>
+        <v>81.908016678213698</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
@@ -8389,7 +8385,7 @@
         <v>1566.7838962395799</v>
       </c>
       <c r="O147">
-        <v>62.789998293606601</v>
+        <v>82.546266494066302</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
@@ -8406,7 +8402,7 @@
         <v>1566.78390118275</v>
       </c>
       <c r="O148">
-        <v>63.291998314906898</v>
+        <v>83.184516313823394</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
@@ -8423,7 +8419,7 @@
         <v>1566.7839059954699</v>
       </c>
       <c r="O149">
-        <v>63.793998335704103</v>
+        <v>83.822766137364397</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
@@ -8440,7 +8436,7 @@
         <v>1566.7839106823101</v>
       </c>
       <c r="O150">
-        <v>64.295998356015701</v>
+        <v>84.461015964574003</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
@@ -8457,7 +8453,7 @@
         <v>1566.7839152476299</v>
       </c>
       <c r="O151">
-        <v>64.7979983758581</v>
+        <v>85.099265795340997</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
@@ -8505,7 +8501,7 @@
         <v>1566.7839196956099</v>
       </c>
       <c r="O152">
-        <v>65.299998395246703</v>
+        <v>85.737515629558601</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
@@ -8522,7 +8518,7 @@
         <v>1566.7839240302401</v>
       </c>
       <c r="O153">
-        <v>65.801998414196603</v>
+        <v>86.375765467124694</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
@@ -8539,7 +8535,7 @@
         <v>1566.78392825535</v>
       </c>
       <c r="O154">
-        <v>66.303998432722096</v>
+        <v>87.014015307940596</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
@@ -8556,7 +8552,7 @@
         <v>1566.78393237461</v>
       </c>
       <c r="O155">
-        <v>66.805998450837095</v>
+        <v>87.652265151911493</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
@@ -8573,7 +8569,7 @@
         <v>1566.78393639152</v>
       </c>
       <c r="O156">
-        <v>67.307998468554601</v>
+        <v>88.290514998946506</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
@@ -8590,7 +8586,7 @@
         <v>1566.7839403094799</v>
       </c>
       <c r="O157">
-        <v>67.809998485887107</v>
+        <v>88.928764848957499</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
@@ -8607,7 +8603,7 @@
         <v>1566.7839441317001</v>
       </c>
       <c r="O158">
-        <v>68.311998502847004</v>
+        <v>89.567014701860501</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
@@ -8624,7 +8620,7 @@
         <v>1566.78394786128</v>
       </c>
       <c r="O159">
-        <v>68.813998519445605</v>
+        <v>90.205264557573898</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
@@ -8641,7 +8637,7 @@
         <v>1566.7839515011999</v>
       </c>
       <c r="O160">
-        <v>69.315998535694206</v>
+        <v>90.843514416019502</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -8658,7 +8654,7 @@
         <v>1566.7839550543199</v>
       </c>
       <c r="O161">
-        <v>69.817998551603495</v>
+        <v>91.481764277121798</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -8675,7 +8671,7 @@
         <v>1566.7839585233901</v>
       </c>
       <c r="O162">
-        <v>70.319998567183404</v>
+        <v>92.120014140807996</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -8692,7 +8688,7 @@
         <v>1566.78396191103</v>
       </c>
       <c r="O163">
-        <v>70.821998582444294</v>
+        <v>92.758264007007696</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -8709,7 +8705,7 @@
         <v>1566.7839652197899</v>
       </c>
       <c r="O164">
-        <v>71.323998597395402</v>
+        <v>93.396513875653596</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -8726,7 +8722,7 @@
         <v>1566.78396845209</v>
       </c>
       <c r="O165">
-        <v>71.825998612045893</v>
+        <v>94.034763746680397</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -8743,7 +8739,7 @@
         <v>1566.7839716102801</v>
       </c>
       <c r="O166">
-        <v>72.327998626404295</v>
+        <v>94.673013620024705</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -8760,7 +8756,7 @@
         <v>1566.7839746966199</v>
       </c>
       <c r="O167">
-        <v>72.829998640479403</v>
+        <v>95.311263495625894</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -8777,7 +8773,7 @@
         <v>1566.7839777132599</v>
       </c>
       <c r="O168">
-        <v>73.331998654279104</v>
+        <v>95.949513373425106</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -8794,7 +8790,7 @@
         <v>1566.7839806623001</v>
       </c>
       <c r="O169">
-        <v>73.833998667811201</v>
+        <v>96.587763253365793</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -8811,7 +8807,7 @@
         <v>1566.7839835457501</v>
       </c>
       <c r="O170">
-        <v>74.335998681083495</v>
+        <v>97.226013135392805</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -8828,7 +8824,7 @@
         <v>1566.7839863655299</v>
       </c>
       <c r="O171">
-        <v>74.837998694102694</v>
+        <v>97.864263019453304</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -8845,7 +8841,7 @@
         <v>1566.7839891235201</v>
       </c>
       <c r="O172">
-        <v>75.339998706876401</v>
+        <v>98.502512905496005</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -8862,7 +8858,7 @@
         <v>1566.78399182151</v>
       </c>
       <c r="O173">
-        <v>75.841998719410896</v>
+        <v>99.140762793471296</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
@@ -8879,7 +8875,7 @@
         <v>1566.7839944612299</v>
       </c>
       <c r="O174">
-        <v>76.343998731712901</v>
+        <v>99.779012683331302</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -8896,7 +8892,7 @@
         <v>1566.7839970443399</v>
       </c>
       <c r="O175">
-        <v>76.845998743788698</v>
+        <v>100.417262575029</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -8913,7 +8909,7 @@
         <v>1566.7839995724701</v>
       </c>
       <c r="O176">
-        <v>77.347998755644198</v>
+        <v>101.05551246852001</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
@@ -8930,7 +8926,7 @@
         <v>1566.7840020471499</v>
       </c>
       <c r="O177">
-        <v>77.8499987672852</v>
+        <v>101.693762363762</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
@@ -8947,7 +8943,7 @@
         <v>1566.7840044699001</v>
       </c>
       <c r="O178">
-        <v>78.351998778717601</v>
+        <v>102.332012260711</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
@@ -8964,7 +8960,7 @@
         <v>1566.7840068421499</v>
       </c>
       <c r="O179">
-        <v>78.853998789946701</v>
+        <v>102.97026215932701</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
@@ -8981,7 +8977,7 @@
         <v>1566.7840091652999</v>
       </c>
       <c r="O180">
-        <v>79.355998800977602</v>
+        <v>103.608512059571</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
@@ -8998,7 +8994,7 @@
         <v>1566.7840114406999</v>
       </c>
       <c r="O181">
-        <v>79.857998811815605</v>
+        <v>104.246761961404</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
@@ -9046,7 +9042,7 @@
         <v>1566.78401366965</v>
       </c>
       <c r="O182">
-        <v>80.359998822465499</v>
+        <v>104.88501186478901</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
@@ -9063,7 +9059,7 @@
         <v>1566.7840158534</v>
       </c>
       <c r="O183">
-        <v>80.861998832932102</v>
+        <v>105.52326176969</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
@@ -9080,7 +9076,7 @@
         <v>1566.78401799319</v>
       </c>
       <c r="O184">
-        <v>81.363998843220003</v>
+        <v>106.161511676072</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
@@ -9097,7 +9093,7 @@
         <v>1566.7840200901601</v>
       </c>
       <c r="O185">
-        <v>81.865998853333593</v>
+        <v>106.799761583902</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
@@ -9114,7 +9110,7 @@
         <v>1566.7840221454801</v>
       </c>
       <c r="O186">
-        <v>82.367998863277194</v>
+        <v>107.43801149314601</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
@@ -9131,7 +9127,7 @@
         <v>1566.78402416022</v>
       </c>
       <c r="O187">
-        <v>82.869998873054996</v>
+        <v>108.076261403774</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
@@ -9148,7 +9144,7 @@
         <v>1566.78402613546</v>
       </c>
       <c r="O188">
-        <v>83.371998882671093</v>
+        <v>108.714511315753</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
@@ -9165,7 +9161,7 @@
         <v>1566.7840280722201</v>
       </c>
       <c r="O189">
-        <v>83.873998892129094</v>
+        <v>109.352761229054</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
@@ -9182,7 +9178,7 @@
         <v>1566.7840299714901</v>
       </c>
       <c r="O190">
-        <v>84.375998901433107</v>
+        <v>109.991011143648</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
@@ -9199,7 +9195,7 @@
         <v>1566.7840318342401</v>
       </c>
       <c r="O191">
-        <v>84.877998910586598</v>
+        <v>110.62926105950601</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
@@ -9216,7 +9212,7 @@
         <v>1566.7840336614099</v>
       </c>
       <c r="O192">
-        <v>85.379998919593405</v>
+        <v>111.267510976601</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
@@ -9233,7 +9229,7 @@
         <v>1566.7840354538801</v>
       </c>
       <c r="O193">
-        <v>85.881998928456397</v>
+        <v>111.905760894907</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
@@ -9250,7 +9246,7 @@
         <v>1566.7840372125499</v>
       </c>
       <c r="O194">
-        <v>86.383998937179598</v>
+        <v>112.544010814397</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
@@ -9267,7 +9263,7 @@
         <v>1566.78403893824</v>
       </c>
       <c r="O195">
-        <v>86.885998945765493</v>
+        <v>113.182260735046</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
@@ -9284,7 +9280,7 @@
         <v>1566.78404063178</v>
       </c>
       <c r="O196">
-        <v>87.387998954218006</v>
+        <v>113.82051065683</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
@@ -9301,7 +9297,7 @@
         <v>1566.7840422939801</v>
       </c>
       <c r="O197">
-        <v>87.889998962539593</v>
+        <v>114.458760579724</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
@@ -9318,7 +9314,7 @@
         <v>1566.7840439255899</v>
       </c>
       <c r="O198">
-        <v>88.391998970733397</v>
+        <v>115.097010503706</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
@@ -9335,7 +9331,7 @@
         <v>1566.7840455273599</v>
       </c>
       <c r="O199">
-        <v>88.893998978802401</v>
+        <v>115.73526042875299</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
@@ -9352,7 +9348,7 @@
         <v>1566.78404710002</v>
       </c>
       <c r="O200">
-        <v>89.395998986749206</v>
+        <v>116.373510354844</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
@@ -9369,7 +9365,7 @@
         <v>1566.7840486442699</v>
       </c>
       <c r="O201">
-        <v>89.897998994576696</v>
+        <v>117.011760281956</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
@@ -9386,7 +9382,7 @@
         <v>1566.78405016079</v>
       </c>
       <c r="O202">
-        <v>90.399999002287203</v>
+        <v>117.650010210069</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
@@ -9403,7 +9399,7 @@
         <v>1566.7840516502399</v>
       </c>
       <c r="O203">
-        <v>90.901999009883397</v>
+        <v>118.288260139163</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
@@ -9420,7 +9416,7 @@
         <v>1566.7840531132699</v>
       </c>
       <c r="O204">
-        <v>91.403999017367894</v>
+        <v>118.926510069218</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
@@ -9437,7 +9433,7 @@
         <v>1566.7840545504901</v>
       </c>
       <c r="O205">
-        <v>91.905999024743295</v>
+        <v>119.564760000216</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
@@ -9454,7 +9450,7 @@
         <v>1566.7840559625099</v>
       </c>
       <c r="O206">
-        <v>92.407999032011105</v>
+        <v>120.203009932136</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
@@ -9471,7 +9467,7 @@
         <v>1566.78405734991</v>
       </c>
       <c r="O207">
-        <v>92.909999039174494</v>
+        <v>120.841259864962</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
@@ -9488,7 +9484,7 @@
         <v>1566.78405871327</v>
       </c>
       <c r="O208">
-        <v>93.411999046235195</v>
+        <v>121.479509798675</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
@@ -9505,7 +9501,7 @@
         <v>1566.7840600531299</v>
       </c>
       <c r="O209">
-        <v>93.913999053195596</v>
+        <v>122.117759733258</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
@@ -9522,7 +9518,7 @@
         <v>1566.78406137004</v>
       </c>
       <c r="O210">
-        <v>94.415999060057601</v>
+        <v>122.756009668695</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
@@ -9539,7 +9535,7 @@
         <v>1566.78406266452</v>
       </c>
       <c r="O211">
-        <v>94.9179990668231</v>
+        <v>123.39425960496899</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
@@ -9587,7 +9583,7 @@
         <v>1566.78406393707</v>
       </c>
       <c r="O212">
-        <v>95.419999073494594</v>
+        <v>124.032509542063</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
@@ -9604,7 +9600,7 @@
         <v>1566.78406518819</v>
       </c>
       <c r="O213">
-        <v>95.921999080073604</v>
+        <v>124.670759479964</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
@@ -9621,7 +9617,7 @@
         <v>1566.78406641836</v>
       </c>
       <c r="O214">
-        <v>96.423999086562006</v>
+        <v>125.309009418654</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
@@ -9638,7 +9634,7 @@
         <v>1566.78406762803</v>
       </c>
       <c r="O215">
-        <v>96.925999092961703</v>
+        <v>125.94725935811999</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
@@ -9655,7 +9651,7 @@
         <v>1566.78406881767</v>
       </c>
       <c r="O216">
-        <v>97.427999099274601</v>
+        <v>126.58550929834701</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
@@ -9672,7 +9668,7 @@
         <v>1566.7840699877199</v>
       </c>
       <c r="O217">
-        <v>97.929999105502205</v>
+        <v>127.223759239321</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
@@ -9689,7 +9685,7 @@
         <v>1566.7840711386</v>
       </c>
       <c r="O218">
-        <v>98.431999111646306</v>
+        <v>127.862009181028</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
@@ -9706,7 +9702,7 @@
         <v>1566.7840722707299</v>
       </c>
       <c r="O219">
-        <v>98.933999117708495</v>
+        <v>128.50025912345501</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
@@ -9723,7 +9719,7 @@
         <v>1566.7840733845201</v>
       </c>
       <c r="O220">
-        <v>99.435999123690394</v>
+        <v>129.13850906658899</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
@@ -9740,7 +9736,7 @@
         <v>1566.78407448036</v>
       </c>
       <c r="O221">
-        <v>99.937999129593706</v>
+        <v>129.77675901041599</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
@@ -9757,7 +9753,7 @@
         <v>1566.7840755586301</v>
       </c>
       <c r="O222">
-        <v>100.439999135419</v>
+        <v>130.41500895492501</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
@@ -9774,7 +9770,7 @@
         <v>1566.78407661971</v>
       </c>
       <c r="O223">
-        <v>100.94199914117</v>
+        <v>131.053258900103</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
@@ -9791,7 +9787,7 @@
         <v>1566.78407766396</v>
       </c>
       <c r="O224">
-        <v>101.443999146846</v>
+        <v>131.69150884593901</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
@@ -9808,7 +9804,7 @@
         <v>1566.78407869174</v>
       </c>
       <c r="O225">
-        <v>101.94599915244901</v>
+        <v>132.32975879241999</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
@@ -9825,7 +9821,7 @@
         <v>1566.78407970339</v>
       </c>
       <c r="O226">
-        <v>102.44799915797999</v>
+        <v>132.96800873953501</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
@@ -9842,7 +9838,7 @@
         <v>1566.7840806992399</v>
       </c>
       <c r="O227">
-        <v>102.949999163442</v>
+        <v>133.60625868727399</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
@@ -9859,7 +9855,7 @@
         <v>1566.7840816796399</v>
       </c>
       <c r="O228">
-        <v>103.451999168835</v>
+        <v>134.24450863562501</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
@@ -9876,7 +9872,7 @@
         <v>1566.7840826448801</v>
       </c>
       <c r="O229">
-        <v>103.95399917416</v>
+        <v>134.88275858457899</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
@@ -9893,7 +9889,7 @@
         <v>1566.78408359529</v>
       </c>
       <c r="O230">
-        <v>104.455999179418</v>
+        <v>135.52100853412301</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
@@ -9910,7 +9906,7 @@
         <v>1566.78408453117</v>
       </c>
       <c r="O231">
-        <v>104.95799918461201</v>
+        <v>136.15925848424899</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
@@ -9927,7 +9923,7 @@
         <v>1566.7840854528099</v>
       </c>
       <c r="O232">
-        <v>105.45999918974201</v>
+        <v>136.79750843494699</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
@@ -9944,7 +9940,7 @@
         <v>1566.7840863604899</v>
       </c>
       <c r="O233">
-        <v>105.961999194809</v>
+        <v>137.435758386206</v>
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
@@ -9961,7 +9957,7 @@
         <v>1566.78408725451</v>
       </c>
       <c r="O234">
-        <v>106.463999199814</v>
+        <v>138.07400833801799</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
@@ -9978,7 +9974,7 @@
         <v>1566.7840881351301</v>
       </c>
       <c r="O235">
-        <v>106.96599920475801</v>
+        <v>138.712258290373</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
@@ -9995,7 +9991,7 @@
         <v>1566.78408900263</v>
       </c>
       <c r="O236">
-        <v>107.467999209643</v>
+        <v>139.350508243262</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
@@ -10012,7 +10008,7 @@
         <v>1566.7840898572499</v>
       </c>
       <c r="O237">
-        <v>107.96999921446999</v>
+        <v>139.988758196677</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
@@ -10029,7 +10025,7 @@
         <v>1566.7840906992501</v>
       </c>
       <c r="O238">
-        <v>108.47199921924</v>
+        <v>140.62700815060799</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
@@ -10046,7 +10042,7 @@
         <v>1566.78409152889</v>
       </c>
       <c r="O239">
-        <v>108.973999223953</v>
+        <v>141.265258105047</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
@@ -10063,7 +10059,7 @@
         <v>1566.78409234639</v>
       </c>
       <c r="O240">
-        <v>109.47599922860999</v>
+        <v>141.903508059986</v>
       </c>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
@@ -10080,7 +10076,7 @@
         <v>1566.78409315201</v>
       </c>
       <c r="O241">
-        <v>109.977999233213</v>
+        <v>142.541758015417</v>
       </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
@@ -10128,7 +10124,7 @@
         <v>1566.78409394596</v>
       </c>
       <c r="O242">
-        <v>110.479999237763</v>
+        <v>143.180007971332</v>
       </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
@@ -10145,7 +10141,7 @@
         <v>1566.7840947284701</v>
       </c>
       <c r="O243">
-        <v>110.98199924226</v>
+        <v>143.81825792772301</v>
       </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
@@ -10162,7 +10158,7 @@
         <v>1566.78409549977</v>
       </c>
       <c r="O244">
-        <v>111.483999246705</v>
+        <v>144.45650788458201</v>
       </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
@@ -10179,7 +10175,7 @@
         <v>1566.7840962600601</v>
       </c>
       <c r="O245">
-        <v>111.985999251099</v>
+        <v>145.094757841903</v>
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
@@ -10196,7 +10192,7 @@
         <v>1566.7840970095499</v>
       </c>
       <c r="O246">
-        <v>112.487999255443</v>
+        <v>145.73300779967801</v>
       </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
@@ -10213,7 +10209,7 @@
         <v>1566.78409774844</v>
       </c>
       <c r="O247">
-        <v>112.98999925973899</v>
+        <v>146.371257757899</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
@@ -10230,7 +10226,7 @@
         <v>1566.78409847695</v>
       </c>
       <c r="O248">
-        <v>113.49199926398499</v>
+        <v>147.009507716559</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
@@ -10247,7 +10243,7 @@
         <v>1566.7840991952501</v>
       </c>
       <c r="O249">
-        <v>113.99399926818499</v>
+        <v>147.647757675653</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
@@ -10264,7 +10260,7 @@
         <v>1566.78409990354</v>
       </c>
       <c r="O250">
-        <v>114.495999272337</v>
+        <v>148.28600763517301</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
@@ -10281,7 +10277,7 @@
         <v>1566.7841006020001</v>
       </c>
       <c r="O251">
-        <v>114.99799927644401</v>
+        <v>148.924257595113</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
@@ -10298,7 +10294,7 @@
         <v>1566.78410129082</v>
       </c>
       <c r="O252">
-        <v>115.49999928050499</v>
+        <v>149.562507555465</v>
       </c>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
@@ -10315,7 +10311,7 @@
         <v>1566.78410197017</v>
       </c>
       <c r="O253">
-        <v>116.001999284522</v>
+        <v>150.200757516225</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
@@ -10332,7 +10328,7 @@
         <v>1566.78410264022</v>
       </c>
       <c r="O254">
-        <v>116.503999288495</v>
+        <v>150.839007477385</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
@@ -10349,7 +10345,7 @@
         <v>1566.78410330115</v>
       </c>
       <c r="O255">
-        <v>117.005999292425</v>
+        <v>151.47725743894</v>
       </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
@@ -10366,7 +10362,7 @@
         <v>1566.7841039531199</v>
       </c>
       <c r="O256">
-        <v>117.50799929631199</v>
+        <v>152.11550740088299</v>
       </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
@@ -10383,7 +10379,7 @@
         <v>1566.78410459629</v>
       </c>
       <c r="O257">
-        <v>118.009999300158</v>
+        <v>152.75375736321001</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
@@ -10400,7 +10396,7 @@
         <v>1566.7841052308199</v>
       </c>
       <c r="O258">
-        <v>118.51199930396299</v>
+        <v>153.39200732591399</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
@@ -10417,7 +10413,7 @@
         <v>1566.7841058568599</v>
       </c>
       <c r="O259">
-        <v>119.013999307727</v>
+        <v>154.03025728898899</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
@@ -10434,7 +10430,7 @@
         <v>1566.7841064745601</v>
       </c>
       <c r="O260">
-        <v>119.51599931145201</v>
+        <v>154.66850725243</v>
       </c>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
@@ -10451,7 +10447,7 @@
         <v>1566.78410708407</v>
       </c>
       <c r="O261">
-        <v>120.017999315137</v>
+        <v>155.306757216233</v>
       </c>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
@@ -10468,7 +10464,7 @@
         <v>1566.78410768554</v>
       </c>
       <c r="O262">
-        <v>120.519999318784</v>
+        <v>155.945007180391</v>
       </c>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
@@ -10485,7 +10481,7 @@
         <v>1566.7841082791001</v>
       </c>
       <c r="O263">
-        <v>121.021999322393</v>
+        <v>156.58325714489899</v>
       </c>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
@@ -10502,7 +10498,7 @@
         <v>1566.7841088649</v>
       </c>
       <c r="O264">
-        <v>121.523999325964</v>
+        <v>157.221507109752</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
@@ -10519,7 +10515,7 @@
         <v>1566.7841094430601</v>
       </c>
       <c r="O265">
-        <v>122.025999329499</v>
+        <v>157.859757074946</v>
       </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
@@ -10536,7 +10532,7 @@
         <v>1566.78411001373</v>
       </c>
       <c r="O266">
-        <v>122.527999332997</v>
+        <v>158.49800704047499</v>
       </c>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
@@ -10553,7 +10549,7 @@
         <v>1566.7841105770301</v>
       </c>
       <c r="O267">
-        <v>123.02999933645999</v>
+        <v>159.136257006335</v>
       </c>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
@@ -10570,7 +10566,7 @@
         <v>1566.7841111330799</v>
       </c>
       <c r="O268">
-        <v>123.53199933988699</v>
+        <v>159.77450697252101</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
@@ -10587,7 +10583,7 @@
         <v>1566.78411168202</v>
       </c>
       <c r="O269">
-        <v>124.03399934328</v>
+        <v>160.41275693902799</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
@@ -10604,7 +10600,7 @@
         <v>1566.7841122239499</v>
       </c>
       <c r="O270">
-        <v>124.535999346639</v>
+        <v>161.05100690585201</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
@@ -10621,7 +10617,7 @@
         <v>1566.78411275901</v>
       </c>
       <c r="O271">
-        <v>125.037999349964</v>
+        <v>161.68925687298801</v>
       </c>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.25">
@@ -10669,7 +10665,7 @@
         <v>1566.7841132873</v>
       </c>
       <c r="O272">
-        <v>125.53999935325599</v>
+        <v>162.32750684043299</v>
       </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
@@ -10686,7 +10682,7 @@
         <v>1566.78411380894</v>
       </c>
       <c r="O273">
-        <v>126.04199935651501</v>
+        <v>162.965756808181</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
@@ -10703,7 +10699,7 @@
         <v>1566.78411432404</v>
       </c>
       <c r="O274">
-        <v>126.543999359742</v>
+        <v>163.604006776229</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
@@ -10720,7 +10716,7 @@
         <v>1566.78411483271</v>
       </c>
       <c r="O275">
-        <v>127.04599936293801</v>
+        <v>164.24225674457199</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
@@ -10737,7 +10733,7 @@
         <v>1566.7841153350601</v>
       </c>
       <c r="O276">
-        <v>127.547999366102</v>
+        <v>164.88050671320701</v>
       </c>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
@@ -10754,7 +10750,7 @@
         <v>1566.7841158311801</v>
       </c>
       <c r="O277">
-        <v>128.049999369235</v>
+        <v>165.51875668212901</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
@@ -10771,7 +10767,7 @@
         <v>1566.7841163211999</v>
       </c>
       <c r="O278">
-        <v>128.551999372339</v>
+        <v>166.157006651334</v>
       </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
@@ -10788,7 +10784,7 @@
         <v>1566.78411680519</v>
       </c>
       <c r="O279">
-        <v>129.05399937541199</v>
+        <v>166.79525662082</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
@@ -10805,7 +10801,7 @@
         <v>1566.78411728327</v>
       </c>
       <c r="O280">
-        <v>129.555999378455</v>
+        <v>167.433506590581</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
@@ -10822,7 +10818,7 @@
         <v>1566.7841177555199</v>
       </c>
       <c r="O281">
-        <v>130.05799938147001</v>
+        <v>168.07175656061401</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
@@ -10839,7 +10835,7 @@
         <v>1566.78411822205</v>
       </c>
       <c r="O282">
-        <v>130.55999938445601</v>
+        <v>168.71000653091701</v>
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
@@ -10856,7 +10852,7 @@
         <v>1566.7841186829401</v>
       </c>
       <c r="O283">
-        <v>131.06199938741401</v>
+        <v>169.348256501484</v>
       </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
@@ -10873,7 +10869,7 @@
         <v>1566.7841191382799</v>
       </c>
       <c r="O284">
-        <v>131.56399939034301</v>
+        <v>169.98650647231199</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
@@ -10890,7 +10886,7 @@
         <v>1566.7841195881699</v>
       </c>
       <c r="O285">
-        <v>132.06599939324599</v>
+        <v>170.62475644339901</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
@@ -10907,7 +10903,7 @@
         <v>1566.78412003269</v>
       </c>
       <c r="O286">
-        <v>132.567999396121</v>
+        <v>171.263006414741</v>
       </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
@@ -10924,7 +10920,7 @@
         <v>1566.78412047192</v>
       </c>
       <c r="O287">
-        <v>133.06999939897</v>
+        <v>171.90125638633401</v>
       </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
@@ -10941,7 +10937,7 @@
         <v>1566.78412090595</v>
       </c>
       <c r="O288">
-        <v>133.571999401792</v>
+        <v>172.539506358175</v>
       </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
@@ -10958,7 +10954,7 @@
         <v>1566.7841213348599</v>
       </c>
       <c r="O289">
-        <v>134.07399940458799</v>
+        <v>173.17775633026099</v>
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
@@ -10975,7 +10971,7 @@
         <v>1566.78412175873</v>
       </c>
       <c r="O290">
-        <v>134.57599940735901</v>
+        <v>173.81600630258799</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
@@ -10992,7 +10988,7 @@
         <v>1566.78412217765</v>
       </c>
       <c r="O291">
-        <v>135.07799941010401</v>
+        <v>174.45425627515399</v>
       </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
@@ -11009,7 +11005,7 @@
         <v>1566.78412259168</v>
       </c>
       <c r="O292">
-        <v>135.57999941282401</v>
+        <v>175.09250624795601</v>
       </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.25">
@@ -11026,7 +11022,7 @@
         <v>1566.7841230009001</v>
       </c>
       <c r="O293">
-        <v>136.08199941551999</v>
+        <v>175.730756220991</v>
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
@@ -11043,7 +11039,7 @@
         <v>1566.7841234053799</v>
       </c>
       <c r="O294">
-        <v>136.58399941819101</v>
+        <v>176.36900619425501</v>
       </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
@@ -11060,7 +11056,7 @@
         <v>1566.7841238052099</v>
       </c>
       <c r="O295">
-        <v>137.08599942083899</v>
+        <v>177.00725616774599</v>
       </c>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.25">
@@ -11077,7 +11073,7 @@
         <v>1566.7841242004499</v>
       </c>
       <c r="O296">
-        <v>137.58799942346201</v>
+        <v>177.645506141461</v>
       </c>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.25">
@@ -11094,7 +11090,7 @@
         <v>1566.78412459117</v>
       </c>
       <c r="O297">
-        <v>138.089999426063</v>
+        <v>178.28375611539701</v>
       </c>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.25">
@@ -11111,7 +11107,7 @@
         <v>1566.7841249774399</v>
       </c>
       <c r="O298">
-        <v>138.59199942864001</v>
+        <v>178.92200608955099</v>
       </c>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.25">
@@ -11128,7 +11124,7 @@
         <v>1566.7841253593199</v>
       </c>
       <c r="O299">
-        <v>139.09399943119499</v>
+        <v>179.560256063921</v>
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
@@ -11145,7 +11141,7 @@
         <v>1566.78412573689</v>
       </c>
       <c r="O300">
-        <v>139.595999433727</v>
+        <v>180.19850603850301</v>
       </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.25">
@@ -11162,7 +11158,7 @@
         <v>1566.7841261102001</v>
       </c>
       <c r="O301">
-        <v>140.09799943623801</v>
+        <v>180.83675601329699</v>
       </c>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.25">
@@ -11210,7 +11206,7 @@
         <v>1566.7841264793301</v>
       </c>
       <c r="O302">
-        <v>140.599999438726</v>
+        <v>181.475005988297</v>
       </c>
     </row>
     <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/doc/milestone2le/measurements_increase_load/total.xlsx
+++ b/doc/milestone2le/measurements_increase_load/total.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="12915" windowHeight="14130" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="12915" windowHeight="14130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tp" sheetId="4" r:id="rId1"/>
@@ -314,7 +314,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3116,11 +3115,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65693184"/>
-        <c:axId val="65695104"/>
+        <c:axId val="82963456"/>
+        <c:axId val="82965632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65693184"/>
+        <c:axId val="82963456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3142,14 +3141,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65695104"/>
+        <c:crossAx val="82965632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3159,7 +3157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65695104"/>
+        <c:axId val="82965632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3183,21 +3181,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65693184"/>
+        <c:crossAx val="82963456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3243,6 +3239,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3270,6 +3267,102 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Tabelle1!$E$2:$E$302</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="301"/>
+                  <c:pt idx="15">
+                    <c:v>14.4668536288707</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>41.038691789677799</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>17.8959505784659</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>29.3810915743246</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>31.689045658871699</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>54.940122301610501</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>54.045528682650797</c:v>
+                  </c:pt>
+                  <c:pt idx="180">
+                    <c:v>51.728958330149702</c:v>
+                  </c:pt>
+                  <c:pt idx="210">
+                    <c:v>52.050476177507598</c:v>
+                  </c:pt>
+                  <c:pt idx="240">
+                    <c:v>52.367742647772602</c:v>
+                  </c:pt>
+                  <c:pt idx="270">
+                    <c:v>49.053878499834902</c:v>
+                  </c:pt>
+                  <c:pt idx="300">
+                    <c:v>46.447093583927099</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Tabelle1!$E$2:$E$302</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="301"/>
+                  <c:pt idx="15">
+                    <c:v>14.4668536288707</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>41.038691789677799</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>17.8959505784659</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>29.3810915743246</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>31.689045658871699</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>54.940122301610501</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>54.045528682650797</c:v>
+                  </c:pt>
+                  <c:pt idx="180">
+                    <c:v>51.728958330149702</c:v>
+                  </c:pt>
+                  <c:pt idx="210">
+                    <c:v>52.050476177507598</c:v>
+                  </c:pt>
+                  <c:pt idx="240">
+                    <c:v>52.367742647772602</c:v>
+                  </c:pt>
+                  <c:pt idx="270">
+                    <c:v>49.053878499834902</c:v>
+                  </c:pt>
+                  <c:pt idx="300">
+                    <c:v>46.447093583927099</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>Tabelle1!$A$2:$A$302</c:f>
@@ -5177,11 +5270,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65751680"/>
-        <c:axId val="65811200"/>
+        <c:axId val="82975360"/>
+        <c:axId val="82977536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65751680"/>
+        <c:axId val="82975360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5208,13 +5301,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65811200"/>
+        <c:crossAx val="82977536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5224,7 +5318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65811200"/>
+        <c:axId val="82977536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5248,19 +5342,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65751680"/>
+        <c:crossAx val="82975360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5285,7 +5381,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="149" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="149" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5324,7 +5420,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9307651" cy="6009060"/>
+    <xdr:ext cx="9307651" cy="6021846"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -5662,7 +5758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O511"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A298" workbookViewId="0">
       <selection activeCell="O3" sqref="O3:O302"/>
     </sheetView>
   </sheetViews>
